--- a/src/Excel/entregable3/ActualizacionIntangibleCTS.xlsx
+++ b/src/Excel/entregable3/ActualizacionIntangibleCTS.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC50C2A6-098F-4C21-97BF-3233C9A2E438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A5B366-5832-4564-8710-DBEC19611DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>usuario</t>
   </si>
@@ -33,59 +33,61 @@
     <t>contraseña</t>
   </si>
   <si>
+    <t>cuenta</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>SCISNEROSCSUP1</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>1001723592</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>20221214</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Transaccion</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>AAACT23065SGF674R</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 15:54:05</t>
+  </si>
+  <si>
+    <t>usuarioAp</t>
+  </si>
+  <si>
     <t>SCISNEROSC1</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Transaccion</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>cuenta</t>
-  </si>
-  <si>
-    <t>monto</t>
-  </si>
-  <si>
-    <t>3500</t>
-  </si>
-  <si>
-    <t>1001614138</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>16 abr. 2023, 20:34:13</t>
-  </si>
-  <si>
-    <t>16 abr. 2023, 20:36:17</t>
-  </si>
-  <si>
-    <t>AAACT23106QX8CNQH</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>16 abr. 2023, 20:37:28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,23 +414,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.36328125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -436,42 +438,57 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
+      <c r="J2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/ActualizacionIntangibleCTS.xlsx
+++ b/src/Excel/entregable3/ActualizacionIntangibleCTS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>usuario</t>
   </si>
@@ -82,12 +82,19 @@
   </si>
   <si>
     <t>SCISNEROSC1</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>19 may. 2023, 11:16:22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,12 +429,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -479,13 +486,13 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>

--- a/src/Excel/entregable3/ActualizacionIntangibleCTS.xlsx
+++ b/src/Excel/entregable3/ActualizacionIntangibleCTS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A5B366-5832-4564-8710-DBEC19611DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E243BB-4260-4F5A-A6AE-75425D456C6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>usuario</t>
   </si>
@@ -48,9 +48,6 @@
     <t>123456</t>
   </si>
   <si>
-    <t>1001723592</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -69,15 +66,6 @@
     <t/>
   </si>
   <si>
-    <t>AAACT23065SGF674R</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 15:54:05</t>
-  </si>
-  <si>
     <t>usuarioAp</t>
   </si>
   <si>
@@ -87,7 +75,16 @@
     <t>FAILED</t>
   </si>
   <si>
-    <t>19 may. 2023, 11:16:22</t>
+    <t>24 may. 2023, 18:03:05</t>
+  </si>
+  <si>
+    <t>1001699489</t>
+  </si>
+  <si>
+    <t>AAACT23144M3Z5XDK</t>
+  </si>
+  <si>
+    <t>24 may. 2023, 18:06:36</t>
   </si>
 </sst>
 </file>
@@ -424,7 +421,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,48 +451,48 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/ActualizacionIntangibleCTS.xlsx
+++ b/src/Excel/entregable3/ActualizacionIntangibleCTS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>usuario</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>24 may. 2023, 18:06:36</t>
+  </si>
+  <si>
+    <t>AAACT23179Z2PQC82</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>28 jun. 2023, 14:43:14</t>
   </si>
 </sst>
 </file>
@@ -483,13 +492,13 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>

--- a/src/Excel/entregable3/ActualizacionIntangibleCTS.xlsx
+++ b/src/Excel/entregable3/ActualizacionIntangibleCTS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>usuario</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>28 jun. 2023, 14:43:14</t>
+  </si>
+  <si>
+    <t>AAACT232164BC48FK</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 15:00:05</t>
   </si>
 </sst>
 </file>
@@ -495,10 +501,10 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>

--- a/src/Excel/entregable3/ActualizacionIntangibleCTS.xlsx
+++ b/src/Excel/entregable3/ActualizacionIntangibleCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E243BB-4260-4F5A-A6AE-75425D456C6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7556992-D695-4EA4-A659-462FE8085957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>usuario</t>
   </si>
@@ -42,9 +42,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>SCISNEROSCSUP1</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -69,37 +66,34 @@
     <t>usuarioAp</t>
   </si>
   <si>
-    <t>SCISNEROSC1</t>
+    <t>1001699489</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>AAACT232164BC48FK</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 15:00:05</t>
+  </si>
+  <si>
+    <t>vbruggo</t>
+  </si>
+  <si>
+    <t>jtangt</t>
   </si>
   <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>24 may. 2023, 18:03:05</t>
-  </si>
-  <si>
-    <t>1001699489</t>
-  </si>
-  <si>
-    <t>AAACT23144M3Z5XDK</t>
-  </si>
-  <si>
-    <t>24 may. 2023, 18:06:36</t>
-  </si>
-  <si>
-    <t>AAACT23179Z2PQC82</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>28 jun. 2023, 14:43:14</t>
-  </si>
-  <si>
-    <t>AAACT232164BC48FK</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 15:00:05</t>
+    <t>7 ago. 2023, 17:18:47</t>
+  </si>
+  <si>
+    <t>7 ago. 2023, 17:23:54</t>
+  </si>
+  <si>
+    <t>7 ago. 2023, 17:27:24</t>
   </si>
 </sst>
 </file>
@@ -436,7 +430,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,48 +460,48 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/ActualizacionIntangibleCTS.xlsx
+++ b/src/Excel/entregable3/ActualizacionIntangibleCTS.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7556992-D695-4EA4-A659-462FE8085957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D0E2E1-E5D9-4312-BD86-CEAC137C4FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActualizacionIntangibleCTS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>usuario</t>
   </si>
@@ -45,12 +45,6 @@
     <t>123456</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>20221214</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -66,34 +60,34 @@
     <t>usuarioAp</t>
   </si>
   <si>
-    <t>1001699489</t>
+    <t>vbruggo</t>
+  </si>
+  <si>
+    <t>jtangt</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>AAACT232239NPZRJV</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>AAACT232164BC48FK</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 15:00:05</t>
-  </si>
-  <si>
-    <t>vbruggo</t>
-  </si>
-  <si>
-    <t>jtangt</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>7 ago. 2023, 17:18:47</t>
-  </si>
-  <si>
-    <t>7 ago. 2023, 17:23:54</t>
-  </si>
-  <si>
-    <t>7 ago. 2023, 17:27:24</t>
+    <t>11 ago. 2023, 08:57:46</t>
+  </si>
+  <si>
+    <t>1010157443</t>
+  </si>
+  <si>
+    <t>20230811</t>
+  </si>
+  <si>
+    <t>AAACT23223DM56NG2</t>
+  </si>
+  <si>
+    <t>11 ago. 2023, 08:59:59</t>
   </si>
 </sst>
 </file>
@@ -430,7 +424,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,48 +454,48 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
